--- a/admin/admin/assets/files/default files/enrolment_template3.xlsx
+++ b/admin/admin/assets/files/default files/enrolment_template3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shsdesk\admin\admin\assets\files\default files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FF6239-54FE-455A-AD49-F22A569BA8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,7 +83,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -88,14 +94,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,7 +142,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -205,7 +214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -378,25 +387,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,13 +418,13 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
@@ -428,24 +437,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
